--- a/data/trans_dic/P14B_x_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P14B_x_R-Habitat-trans_dic.xlsx
@@ -734,12 +734,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 8,31</t>
+          <t>0,77; 8,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,35; 10,4</t>
+          <t>0,82; 9,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,12 +754,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,51; 13,38</t>
+          <t>3,42; 12,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,37; 9,29</t>
+          <t>3,65; 10,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 8,98</t>
+          <t>2,72; 8,97</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,02; 7,91</t>
+          <t>3,03; 7,81</t>
         </is>
       </c>
     </row>
@@ -874,12 +874,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,83</t>
+          <t>0,78; 2,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,48; 8,71</t>
+          <t>4,35; 8,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,12 +894,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,79; 10,46</t>
+          <t>5,92; 10,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,13; 8,37</t>
+          <t>5,11; 8,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -914,12 +914,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,6; 6,27</t>
+          <t>3,6; 6,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,21; 7,74</t>
+          <t>5,33; 7,89</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1014,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,52</t>
+          <t>0,92; 2,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,7; 3,65</t>
+          <t>1,63; 3,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,67; 7,83</t>
+          <t>4,74; 7,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,93; 8,49</t>
+          <t>6,0; 8,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 4,88</t>
+          <t>3,06; 4,82</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,07; 5,76</t>
+          <t>4,09; 5,83</t>
         </is>
       </c>
     </row>
@@ -1154,12 +1154,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,91</t>
+          <t>1,47; 3,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,2; 5,52</t>
+          <t>2,26; 5,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,12 +1174,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,02; 8,74</t>
+          <t>5,05; 8,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,89; 10,84</t>
+          <t>5,71; 11,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1194,12 +1194,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,6; 5,74</t>
+          <t>3,62; 5,88</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,81; 7,72</t>
+          <t>4,82; 7,81</t>
         </is>
       </c>
     </row>
@@ -1294,12 +1294,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,17</t>
+          <t>1,36; 3,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,33; 5,95</t>
+          <t>3,28; 5,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1314,12 +1314,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,89; 8,21</t>
+          <t>5,01; 8,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,03; 10,0</t>
+          <t>6,99; 10,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1334,12 +1334,12 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,54; 5,44</t>
+          <t>3,47; 5,39</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,61; 7,58</t>
+          <t>5,65; 7,78</t>
         </is>
       </c>
     </row>
@@ -1434,12 +1434,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,53; 2,53</t>
+          <t>1,56; 2,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,19; 4,66</t>
+          <t>3,24; 4,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,87; 7,63</t>
+          <t>5,89; 7,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,87; 8,59</t>
+          <t>6,83; 8,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,92; 4,97</t>
+          <t>3,93; 4,89</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,38; 6,51</t>
+          <t>5,4; 6,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P14B_x_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P14B_x_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 8,94</t>
+          <t>0,77; 8,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,42; 12,99</t>
+          <t>3,51; 13,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,72; 8,97</t>
+          <t>2,84; 8,97</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,91</t>
+          <t>0,74; 2,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,92; 10,7</t>
+          <t>5,93; 10,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,6; 6,23</t>
+          <t>3,7; 6,34</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,57</t>
+          <t>0,98; 2,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,74; 7,83</t>
+          <t>4,71; 7,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 4,82</t>
+          <t>3,18; 4,85</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,47; 3,77</t>
+          <t>1,36; 3,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,05; 8,9</t>
+          <t>5,07; 8,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,62; 5,88</t>
+          <t>3,68; 6,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,23</t>
+          <t>1,36; 3,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,01; 8,34</t>
+          <t>4,99; 8,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,47; 5,39</t>
+          <t>3,49; 5,39</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,56; 2,5</t>
+          <t>1,49; 2,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,89; 7,66</t>
+          <t>5,86; 7,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,93; 4,89</t>
+          <t>3,85; 4,91</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/P14B_x_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P14B_x_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -734,12 +734,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 8,01</t>
+          <t>0,79; 8,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 9,65</t>
+          <t>1,35; 10,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,12 +754,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,51; 13,28</t>
+          <t>3,51; 13,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,65; 10,19</t>
+          <t>3,37; 9,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,84; 8,97</t>
+          <t>2,68; 8,98</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,03; 7,81</t>
+          <t>3,02; 7,91</t>
         </is>
       </c>
     </row>
@@ -874,12 +874,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,96</t>
+          <t>0,79; 2,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,35; 8,47</t>
+          <t>4,48; 8,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,12 +894,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,93; 10,42</t>
+          <t>5,79; 10,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,11; 8,48</t>
+          <t>5,13; 8,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -914,12 +914,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,7; 6,34</t>
+          <t>3,6; 6,27</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,33; 7,89</t>
+          <t>5,21; 7,74</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1014,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,64</t>
+          <t>0,99; 2,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,63; 3,71</t>
+          <t>1,7; 3,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,71; 7,81</t>
+          <t>4,67; 7,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,0; 8,65</t>
+          <t>5,93; 8,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,18; 4,85</t>
+          <t>3,04; 4,88</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,09; 5,83</t>
+          <t>4,07; 5,76</t>
         </is>
       </c>
     </row>
@@ -1154,12 +1154,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,6</t>
+          <t>1,45; 3,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,26; 5,57</t>
+          <t>2,2; 5,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,12 +1174,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,07; 8,88</t>
+          <t>5,02; 8,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,71; 11,24</t>
+          <t>5,89; 10,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1194,12 +1194,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,68; 6,0</t>
+          <t>3,6; 5,74</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,82; 7,81</t>
+          <t>4,81; 7,72</t>
         </is>
       </c>
     </row>
@@ -1294,12 +1294,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,2</t>
+          <t>1,36; 3,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,28; 5,99</t>
+          <t>3,33; 5,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1314,12 +1314,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,99; 8,06</t>
+          <t>4,89; 8,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,99; 10,01</t>
+          <t>7,03; 10,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1334,12 +1334,12 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,49; 5,39</t>
+          <t>3,54; 5,44</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,65; 7,78</t>
+          <t>5,61; 7,58</t>
         </is>
       </c>
     </row>
@@ -1434,12 +1434,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,49; 2,46</t>
+          <t>1,53; 2,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,24; 4,69</t>
+          <t>3,19; 4,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,86; 7,7</t>
+          <t>5,87; 7,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,83; 8,67</t>
+          <t>6,87; 8,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,85; 4,91</t>
+          <t>3,92; 4,97</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,4; 6,55</t>
+          <t>5,38; 6,51</t>
         </is>
       </c>
     </row>
